--- a/biology/Botanique/Phlomis_crinita/Phlomis_crinita.xlsx
+++ b/biology/Botanique/Phlomis_crinita/Phlomis_crinita.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phlomis crinita est une espèce de plante de la famille des Lamiaceae et du genre Phlomis.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a des fleurs jaune orangé, groupées en verticilles le long de tiges de plus de 50 cm de haut. Celles-ci et les feuilles sont habillées de poils denses argentés et crémeux. Elle est assez semblable à Phlomis lychnitis avec laquelle on la confond souvent et avec qui elle forme un hybride[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a des fleurs jaune orangé, groupées en verticilles le long de tiges de plus de 50 cm de haut. Celles-ci et les feuilles sont habillées de poils denses argentés et crémeux. Elle est assez semblable à Phlomis lychnitis avec laquelle on la confond souvent et avec qui elle forme un hybride.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On trouve Phlomis crinita en Espagne et en Afrique en face.
 Elle préfère les endroits rocailleux et secs, tels que les fossés, les corniches...
@@ -574,9 +590,11 @@
           <t>Parasitologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La feuille a pour parasites Gampsocoris punctipes et Trachys pumilus. La racine a pour parasite Longitarsus ferruginipennis (en)[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La feuille a pour parasites Gampsocoris punctipes et Trachys pumilus. La racine a pour parasite Longitarsus ferruginipennis (en).
 </t>
         </is>
       </c>
